--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680FD69F-6B0A-4726-94F1-5608041C90C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F32F88-9997-4EC9-ABB3-973859F88E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Example</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>nnz Ratio</t>
+  </si>
+  <si>
+    <t>Constructed</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -94,15 +103,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -115,6 +137,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -125,6 +167,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -135,6 +197,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -145,6 +247,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -165,91 +287,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -563,20 +605,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,77 +626,146 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <f>702/588</f>
-        <v>1.1938775510204083</v>
-      </c>
-      <c r="D8" s="2">
-        <f>905/859</f>
-        <v>1.0535506402793946</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+  <conditionalFormatting sqref="B2:D17">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+  <conditionalFormatting sqref="B2:D17">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="E8:F8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D14">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F32F88-9997-4EC9-ABB3-973859F88E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475021E-5E3C-442E-B797-8E9BD35AB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Example</t>
   </si>
@@ -43,12 +43,6 @@
     <t>VQ Comply</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
     <t>coeff Ratio</t>
   </si>
   <si>
@@ -62,13 +56,115 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>nnz_gt10 Ratio</t>
+  </si>
+  <si>
+    <t>MV0 Ratio</t>
+  </si>
+  <si>
+    <t>MV1 Ratio</t>
+  </si>
+  <si>
+    <t>MV2 Ratio</t>
+  </si>
+  <si>
+    <t>(1;0)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Costructed Candidate Mismatch</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>why "ko"?</t>
+  </si>
+  <si>
+    <t>(0,69;0,47°)</t>
+  </si>
+  <si>
+    <t>(0,85;3,36°)</t>
+  </si>
+  <si>
+    <t>Wrong choice (I instead of C)</t>
+  </si>
+  <si>
+    <t>Comply Ratio</t>
+  </si>
+  <si>
+    <t>Wrong choice (C instead of I)</t>
+  </si>
+  <si>
+    <t>SAD Ratio</t>
+  </si>
+  <si>
+    <t>(0,67;116,57°)</t>
+  </si>
+  <si>
+    <t>(1,16;19,39°)</t>
+  </si>
+  <si>
+    <t>(1;6,73°)</t>
+  </si>
+  <si>
+    <t>(1,04;6,84°)</t>
+  </si>
+  <si>
+    <t>Constructed Candidate Mismatch</t>
+  </si>
+  <si>
+    <t>(0,84;25,22°)</t>
+  </si>
+  <si>
+    <t>(0,94;0,51°)</t>
+  </si>
+  <si>
+    <t>(inf;129,81°)</t>
+  </si>
+  <si>
+    <t>(0,55;164,05°)</t>
+  </si>
+  <si>
+    <t>(0,8;180°)</t>
+  </si>
+  <si>
+    <t>In questo esempio il candidato costruito da Matlab e dal VTM vanno in due direzioni opposte, come si puo' notare dalla differenza di fase dei motion vectors. Il candidato scelto da Matlab è quello che punta nella direzione "giusta" di movimento degli oggetti nel video, cosa che riduce di molto il peso del residuo in termini di memoria</t>
+  </si>
+  <si>
+    <t>Constr. Match</t>
+  </si>
+  <si>
+    <t>(0,88;3,36°)</t>
+  </si>
+  <si>
+    <t>(0,79;1,24°)</t>
+  </si>
+  <si>
+    <t>(0,88;3,37°)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>In questo esempio il candidato costruito da Matlab è molto simile al MV che viene fuori dopo il refinement, invece il candidato costruito dal VTM e quello traslazionale sono molto diversi da ciò che vien fuori dal refinement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong choice (C instead of T) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +172,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +193,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF473D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,22 +226,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -185,118 +388,13 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCF473D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,167 +703,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <f>234/326</f>
+        <v>0.71779141104294475</v>
+      </c>
+      <c r="G5" s="3">
+        <f>323/345</f>
+        <v>0.93623188405797098</v>
+      </c>
+      <c r="H5" s="3">
+        <f>125/140</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <f>127/227</f>
+        <v>0.55947136563876654</v>
+      </c>
+      <c r="G7" s="3">
+        <f>160/297</f>
+        <v>0.53872053872053871</v>
+      </c>
+      <c r="H7" s="3">
+        <f>85/95</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3">
+        <f>263/252</f>
+        <v>1.0436507936507937</v>
+      </c>
+      <c r="G9" s="3">
+        <f>961/961</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <f>437/454</f>
+        <v>0.9625550660792952</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <f>930/859</f>
+        <v>1.0826542491268918</v>
+      </c>
+      <c r="G12" s="3">
+        <f>1596/1625</f>
+        <v>0.98215384615384616</v>
+      </c>
+      <c r="H12" s="3">
+        <f>706/951</f>
+        <v>0.74237644584647744</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <f>218/293</f>
+        <v>0.74402730375426618</v>
+      </c>
+      <c r="G13" s="12">
+        <f>420/745</f>
+        <v>0.56375838926174493</v>
+      </c>
+      <c r="H13" s="12">
+        <f>278/516</f>
+        <v>0.53875968992248058</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <f>458/448</f>
+        <v>1.0223214285714286</v>
+      </c>
+      <c r="G15" s="3">
+        <f>959/965</f>
+        <v>0.99378238341968916</v>
+      </c>
+      <c r="H15" s="3">
+        <f>265/266</f>
+        <v>0.99624060150375937</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>AVERAGE(B2:B17)</f>
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D17">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="B18:E24 C2:E17">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="B18:E24 C2:E17">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:F8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="F8:G8 G9:G13">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D14">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:E21">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:E25">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"V"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475021E-5E3C-442E-B797-8E9BD35AB5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1C9CA-5894-4C66-A5EE-635EAEB39B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>Example</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t xml:space="preserve">Wrong choice (C instead of T) </t>
+  </si>
+  <si>
+    <t>Cons. Match Ratio</t>
+  </si>
+  <si>
+    <t>In questo caso, il fatto che il costruttore di candidati non sia VTM-compliant fa sì che la scelta sia quella corretta. Per capire meglio, vedi il vettore dei SAD per questo esempio.</t>
+  </si>
+  <si>
+    <t>Wrong choice (T instead of C)</t>
+  </si>
+  <si>
+    <t>(inf;180°)</t>
+  </si>
+  <si>
+    <t>(1;90°)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -294,11 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -703,16 +719,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
@@ -762,7 +780,7 @@
       <c r="M1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1186,7 +1204,7 @@
       <c r="K15" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>0.46200000000000002</v>
       </c>
       <c r="M15" t="s">
@@ -1215,9 +1233,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1236,59 +1254,134 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f>AVERAGE(B2:B17)</f>
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="L18" s="13"/>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <f>230/234</f>
+        <v>0.98290598290598286</v>
+      </c>
+      <c r="G19" s="3">
+        <f>486/476</f>
+        <v>1.0210084033613445</v>
+      </c>
+      <c r="H19" s="3">
+        <f>321/271</f>
+        <v>1.1845018450184501</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>AVERAGE(B2:B19)</f>
+        <v>0.61111111111111116</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="15">
+        <f>COUNTIF(D2:D19,"V")/(COUNTIF(D2:D19,"V")+COUNTIF(D2:D19,"X"))</f>
+        <v>0.35714285714285715</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:E24 C2:E17">
+  <conditionalFormatting sqref="C2:E19 B20:E26">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -1296,7 +1389,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:E24 C2:E17">
+  <conditionalFormatting sqref="C2:E19 B20:E26">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -1309,17 +1402,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E21">
+  <conditionalFormatting sqref="C2:E23">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E25">
+  <conditionalFormatting sqref="C2:E27">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
+  <conditionalFormatting sqref="B2:B19">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B1C9CA-5894-4C66-A5EE-635EAEB39B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A758C65-60B6-4ABD-B084-BE9A9F7A44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Example</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>(1;90°)</t>
+  </si>
+  <si>
+    <t>Change w/o constructor?</t>
+  </si>
+  <si>
+    <t>VQ C. w/o constr.</t>
+  </si>
+  <si>
+    <t>VQ C. w constr and VTM</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,221 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -719,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,17 +953,19 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -754,37 +979,46 @@
         <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -797,14 +1031,24 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>IF(_xlfn.XOR(B2,E2),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -817,14 +1061,24 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -838,13 +1092,23 @@
         <v>14</v>
       </c>
       <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -858,37 +1122,47 @@
         <v>14</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3">
         <f>234/326</f>
         <v>0.71779141104294475</v>
       </c>
-      <c r="G5" s="3">
+      <c r="J5" s="3">
         <f>323/345</f>
         <v>0.93623188405797098</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <f>125/140</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>0.77800000000000002</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -901,14 +1175,24 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -922,37 +1206,47 @@
         <v>14</v>
       </c>
       <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="3">
         <f>127/227</f>
         <v>0.55947136563876654</v>
       </c>
-      <c r="G7" s="3">
+      <c r="J7" s="3">
         <f>160/297</f>
         <v>0.53872053872053871</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K7" s="3">
         <f>85/95</f>
         <v>0.89473684210526316</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>24</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -965,14 +1259,24 @@
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -986,37 +1290,47 @@
         <v>14</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <f>263/252</f>
         <v>1.0436507936507937</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <f>961/961</f>
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <f>437/454</f>
         <v>0.9625550660792952</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>0.97499999999999998</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -1029,14 +1343,24 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
@@ -1049,14 +1373,24 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
@@ -1070,37 +1404,47 @@
         <v>14</v>
       </c>
       <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <f>930/859</f>
         <v>1.0826542491268918</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <f>1596/1625</f>
         <v>0.98215384615384616</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <f>706/951</f>
         <v>0.74237644584647744</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>27</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>28</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>29</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>0.85899999999999999</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>15</v>
       </c>
@@ -1114,40 +1458,50 @@
         <v>14</v>
       </c>
       <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3">
         <f>218/293</f>
         <v>0.74402730375426618</v>
       </c>
-      <c r="G13" s="12">
+      <c r="J13" s="12">
         <f>420/745</f>
         <v>0.56375838926174493</v>
       </c>
-      <c r="H13" s="12">
+      <c r="K13" s="12">
         <f>278/516</f>
         <v>0.53875968992248058</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>12</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>0.90200000000000002</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>26</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16</v>
       </c>
@@ -1160,14 +1514,24 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -1181,40 +1545,50 @@
         <v>14</v>
       </c>
       <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <f>458/448</f>
         <v>1.0223214285714286</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <f>959/965</f>
         <v>0.99378238341968916</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <f>265/266</f>
         <v>0.99624060150375937</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>34</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="13">
+      <c r="O15" s="13">
         <v>0.46200000000000002</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>39</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
@@ -1227,15 +1601,25 @@
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19</v>
       </c>
@@ -1248,15 +1632,25 @@
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1270,17 +1664,27 @@
         <v>14</v>
       </c>
       <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="L18" s="13"/>
-      <c r="N18" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="O18" s="13"/>
+      <c r="Q18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1294,130 +1698,357 @@
         <v>14</v>
       </c>
       <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="3">
+      <c r="I19" s="3">
         <f>230/234</f>
         <v>0.98290598290598286</v>
       </c>
-      <c r="G19" s="3">
+      <c r="J19" s="3">
         <f>486/476</f>
         <v>1.0210084033613445</v>
       </c>
-      <c r="H19" s="3">
+      <c r="K19" s="3">
         <f>321/271</f>
         <v>1.1845018450184501</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>43</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>44</v>
       </c>
-      <c r="L19" s="16">
+      <c r="O19" s="16">
         <v>0.76529999999999998</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f>AVERAGE(B2:B19)</f>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="15">
-        <f>COUNTIF(D2:D19,"V")/(COUNTIF(D2:D19,"V")+COUNTIF(D2:D19,"X"))</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <f>AVERAGE(B2:B22)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="15">
+        <f>COUNTIF(D2:D21,"V")/(COUNTIF(D2:D21,"V")+COUNTIF(D2:D21,"X"))</f>
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1">
+        <f>AVERAGE(F2:F22)</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="G24" s="1">
+        <f>AVERAGE(G2:G22)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:E19 B20:E26">
+  <conditionalFormatting sqref="B23:D29 C2:D22 H2:H29">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D29 C2:D22 H2:H29">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:J8 J9:J13">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D26 H2:H26">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D30 H2:H30">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+      <formula>"V"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B22">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E22">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G22">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:G23">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:G23">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"ko"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E19 B20:E26">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G8 G9:G13">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
-      <formula>1</formula>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E23">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:E27">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"V"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B19">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
+      <formula>"ko"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>1</formula>
+      <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A758C65-60B6-4ABD-B084-BE9A9F7A44A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19930C6E-B7AA-425A-8E22-82B0BCFFD4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Example</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>VQ C. w constr and VTM</t>
+  </si>
+  <si>
+    <t>Constr. Cand. Mism. + Wr. Ch. (T instead of C)</t>
+  </si>
+  <si>
+    <t>In questo esempio, il candidato costruito dal VTM e l'altro candidato (quello T) sono molto simili, mentre il candidato costruito dal modello Matlab è molto diverso. Fortunatamente, la scelta del candidato nell'algoritmo approssimato ricadfe sul canddiato T, in questo modo l'errore non è molto grande</t>
+  </si>
+  <si>
+    <t>(0,70;13,84°)</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -962,7 +971,7 @@
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="34.140625" customWidth="1"/>
+    <col min="16" max="16" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1065,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F22" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
+        <f t="shared" ref="F3:F23" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
         <v>1</v>
       </c>
       <c r="G3">
@@ -1832,43 +1841,76 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3">
+        <f>244/196</f>
+        <v>1.2448979591836735</v>
+      </c>
+      <c r="J23" s="3">
+        <f>476/464</f>
+        <v>1.0258620689655173</v>
+      </c>
+      <c r="K23" s="3">
+        <f>235/212</f>
+        <v>1.1084905660377358</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="16">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="11" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f>AVERAGE(B2:B22)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="15">
-        <f>COUNTIF(D2:D21,"V")/(COUNTIF(D2:D21,"V")+COUNTIF(D2:D21,"X"))</f>
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1">
-        <f>AVERAGE(F2:F22)</f>
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="G24" s="1">
-        <f>AVERAGE(G2:G22)</f>
-        <v>0.61904761904761907</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
@@ -1876,11 +1918,24 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>AVERAGE(B2:B23)</f>
+        <v>0.63636363636363635</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="15">
+        <f>COUNTIF(D2:D23,"V")/(COUNTIF(D2:D23,"V")+COUNTIF(D2:D23,"X"))</f>
+        <v>0.375</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="1">
+        <f>AVERAGE(F2:F23)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G25" s="1">
+        <f>AVERAGE(G2:G23)</f>
+        <v>0.63636363636363635</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1890,7 +1945,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
@@ -1898,9 +1953,12 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1912,21 +1970,29 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B23:D29 C2:D22 H2:H29">
+  <conditionalFormatting sqref="B24:D30 C2:D23 H2:H30">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -1934,7 +2000,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D29 C2:D22 H2:H29">
+  <conditionalFormatting sqref="B24:D30 C2:D23 H2:H30">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -1947,17 +2013,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D26 H2:H26">
+  <conditionalFormatting sqref="C2:D27 H2:H27">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D30 H2:H30">
+  <conditionalFormatting sqref="C2:D31 H2:H31">
     <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B22">
+  <conditionalFormatting sqref="B2:B23">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1965,7 +2031,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1979,7 +2045,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G22">
+  <conditionalFormatting sqref="F2:G23">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1987,7 +2053,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G23">
+  <conditionalFormatting sqref="F24:G24">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -1995,7 +2061,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:G23">
+  <conditionalFormatting sqref="F24:G24">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2003,7 +2069,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2011,7 +2077,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2019,7 +2085,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2027,7 +2093,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="F25">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2035,7 +2101,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2043,7 +2109,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ko"</formula>
     </cfRule>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19930C6E-B7AA-425A-8E22-82B0BCFFD4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6662D3-B834-446E-9423-C962C6C4ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Example</t>
   </si>
@@ -951,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F23" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
+        <f t="shared" ref="F3:F25" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
         <v>1</v>
       </c>
       <c r="G3">
@@ -1898,101 +1898,163 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="2"/>
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f>AVERAGE(B2:B23)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="15">
-        <f>COUNTIF(D2:D23,"V")/(COUNTIF(D2:D23,"V")+COUNTIF(D2:D23,"X"))</f>
-        <v>0.375</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1">
-        <f>AVERAGE(F2:F23)</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="G25" s="1">
-        <f>AVERAGE(G2:G23)</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="H25" s="2"/>
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f>AVERAGE(B2:B25)</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="15">
+        <f>COUNTIF(D2:D25,"V")/(COUNTIF(D2:D25,"V")+COUNTIF(D2:D25,"X"))</f>
+        <v>0.3888888888888889</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="1">
+        <f>AVERAGE(F2:F25)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G27" s="1">
+        <f>AVERAGE(G2:G25)</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B24:D30 C2:D23 H2:H30">
+  <conditionalFormatting sqref="B26:D32 C2:D25 H2:H32">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2000,7 +2062,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D30 C2:D23 H2:H30">
+  <conditionalFormatting sqref="B26:D32 C2:D25 H2:H32">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2013,17 +2075,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D27 H2:H27">
+  <conditionalFormatting sqref="C2:D29 H2:H29">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 H2:H31">
+  <conditionalFormatting sqref="C2:D33 H2:H33">
     <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
+  <conditionalFormatting sqref="B2:B25">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2031,7 +2093,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E23">
+  <conditionalFormatting sqref="E2:E25">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2045,7 +2107,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G23">
+  <conditionalFormatting sqref="F2:G25">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2053,7 +2115,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="F26:G26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2061,7 +2123,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:G24">
+  <conditionalFormatting sqref="F26:G26">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2069,7 +2131,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2077,7 +2139,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="G27">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2085,7 +2147,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2093,7 +2155,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2101,7 +2163,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2109,7 +2171,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ko"</formula>
     </cfRule>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6662D3-B834-446E-9423-C962C6C4ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547523E8-5497-41EB-B898-508042C6C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
+    <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Example</t>
   </si>
@@ -951,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1074,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
+        <f t="shared" ref="F3:F27" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
         <v>1</v>
       </c>
       <c r="G3">
@@ -1960,101 +1960,163 @@
       <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="2"/>
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>4</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <f>AVERAGE(B2:B25)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="15">
-        <f>COUNTIF(D2:D25,"V")/(COUNTIF(D2:D25,"V")+COUNTIF(D2:D25,"X"))</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1">
-        <f>AVERAGE(F2:F25)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G27" s="1">
-        <f>AVERAGE(G2:G25)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H27" s="2"/>
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>AVERAGE(B2:B27)</f>
+        <v>0.69230769230769229</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="15">
+        <f>COUNTIF(D2:D26,"V")/(COUNTIF(D2:D26,"V")+COUNTIF(D2:D26,"X"))</f>
+        <v>0.36842105263157893</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="1">
+        <f>AVERAGE(F2:F27)</f>
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="G29" s="1">
+        <f>AVERAGE(G2:G27)</f>
+        <v>0.65384615384615385</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B26:D32 C2:D25 H2:H32">
+  <conditionalFormatting sqref="B28:D34 C2:D27 H2:H34">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2062,7 +2124,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:D32 C2:D25 H2:H32">
+  <conditionalFormatting sqref="B28:D34 C2:D27 H2:H34">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2075,17 +2137,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D29 H2:H29">
+  <conditionalFormatting sqref="C2:D31 H2:H31">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D33 H2:H33">
+  <conditionalFormatting sqref="C2:D35 H2:H35">
     <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B25">
+  <conditionalFormatting sqref="B2:B27">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2093,7 +2155,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E27">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2107,7 +2169,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G25">
+  <conditionalFormatting sqref="F2:G27">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2115,7 +2177,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:G26">
+  <conditionalFormatting sqref="F28:G28">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2123,7 +2185,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:G26">
+  <conditionalFormatting sqref="F28:G28">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2131,7 +2193,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2139,7 +2201,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2147,7 +2209,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2155,7 +2217,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="F29">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2163,7 +2225,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F31">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2171,7 +2233,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ko"</formula>
     </cfRule>

--- a/examples-tracking/matlab_examples-summary.xlsx
+++ b/examples-tracking/matlab_examples-summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\examples-tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547523E8-5497-41EB-B898-508042C6C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59029E4-12B1-4165-87A3-22F5F35605C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="7980" windowWidth="20730" windowHeight="11160" tabRatio="561" xr2:uid="{56D4DD34-A680-4042-994C-892E318DCD5D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>Example</t>
   </si>
@@ -127,15 +127,6 @@
     <t>(inf;129,81°)</t>
   </si>
   <si>
-    <t>(0,55;164,05°)</t>
-  </si>
-  <si>
-    <t>(0,8;180°)</t>
-  </si>
-  <si>
-    <t>In questo esempio il candidato costruito da Matlab e dal VTM vanno in due direzioni opposte, come si puo' notare dalla differenza di fase dei motion vectors. Il candidato scelto da Matlab è quello che punta nella direzione "giusta" di movimento degli oggetti nel video, cosa che riduce di molto il peso del residuo in termini di memoria</t>
-  </si>
-  <si>
     <t>Constr. Match</t>
   </si>
   <si>
@@ -188,6 +179,12 @@
   </si>
   <si>
     <t>(0,70;13,84°)</t>
+  </si>
+  <si>
+    <t>In realtà in questo esempio non c'è nulla da scegliere, i due candidati sono uguali!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Nothing to build)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,12 +232,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -326,9 +317,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -951,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A14A-6D09-4A45-ADED-54D50B4A71B6}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,16 +975,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>6</v>
@@ -1023,8 +1013,8 @@
       <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>37</v>
+      <c r="Q1" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1074,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F27" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
+        <f t="shared" ref="F3:F28" si="0">IF(_xlfn.XOR(B3,E3),1,0)</f>
         <v>1</v>
       </c>
       <c r="G3">
@@ -1287,100 +1277,103 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>6</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="Q9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
         <f>263/252</f>
         <v>1.0436507936507937</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <f>961/961</f>
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <f>437/454</f>
         <v>0.9625550660792952</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N10" t="s">
         <v>23</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>0.97499999999999998</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1393,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1401,127 +1394,100 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>6</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <f>930/859</f>
         <v>1.0826542491268918</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <f>1596/1625</f>
         <v>0.98215384615384616</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <f>706/951</f>
         <v>0.74237644584647744</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>27</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>28</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N13" t="s">
         <v>29</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>0.85899999999999999</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4</v>
-      </c>
-      <c r="I13" s="3">
-        <f>218/293</f>
-        <v>0.74402730375426618</v>
-      </c>
-      <c r="J13" s="12">
-        <f>420/745</f>
-        <v>0.56375838926174493</v>
-      </c>
-      <c r="K13" s="12">
-        <f>278/516</f>
-        <v>0.53875968992248058</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13">
-        <v>0.90200000000000002</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1537,109 +1503,106 @@
         <v>4</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>6</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="3">
         <f>458/448</f>
         <v>1.0223214285714286</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <f>959/965</f>
         <v>0.99378238341968916</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="3">
         <f>265/266</f>
         <v>0.99624060150375937</v>
       </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
         <v>35</v>
       </c>
-      <c r="N15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="P15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -1657,11 +1620,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="O17" s="13"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1670,17 +1633,17 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1688,17 +1651,14 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="O18" s="13"/>
-      <c r="Q18" t="s">
-        <v>41</v>
-      </c>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -1707,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -1717,79 +1677,82 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="O19" s="12"/>
+      <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>6</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <f>230/234</f>
         <v>0.98290598290598286</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <f>486/476</f>
         <v>1.0210084033613445</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <f>321/271</f>
         <v>1.1845018450184501</v>
       </c>
-      <c r="L19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="16">
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="15">
         <v>0.76529999999999998</v>
       </c>
-      <c r="P19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>6</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="O20" s="16"/>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>12</v>
@@ -1807,11 +1770,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="O21" s="16"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1833,104 +1796,104 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>25</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
         <v>6</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I24" s="3">
         <f>244/196</f>
         <v>1.2448979591836735</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J24" s="3">
         <f>476/464</f>
         <v>1.0258620689655173</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K24" s="3">
         <f>235/212</f>
         <v>1.1084905660377358</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>11</v>
       </c>
-      <c r="M23" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" t="s">
         <v>11</v>
       </c>
-      <c r="O23" s="16">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="O24" s="16"/>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1939,10 +1902,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -1952,16 +1915,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="O25" s="16"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1983,16 +1946,16 @@
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="O26" s="16"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2004,14 +1967,14 @@
         <v>14</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <v>4</v>
@@ -2019,46 +1982,53 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="O27" s="16"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="2"/>
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <f>AVERAGE(B2:B27)</f>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="15">
-        <f>COUNTIF(D2:D26,"V")/(COUNTIF(D2:D26,"V")+COUNTIF(D2:D26,"X"))</f>
-        <v>0.36842105263157893</v>
+      <c r="B29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="1">
-        <f>AVERAGE(F2:F27)</f>
-        <v>0.80769230769230771</v>
-      </c>
-      <c r="G29" s="1">
-        <f>AVERAGE(G2:G27)</f>
-        <v>0.65384615384615385</v>
+      <c r="F29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
@@ -2066,11 +2036,24 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <f>AVERAGE(B2:B28)</f>
+        <v>0.7407407407407407</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="14">
+        <f>COUNTIF(D2:D27,"V")/(COUNTIF(D2:D27,"V")+COUNTIF(D2:D27,"X"))</f>
+        <v>0.3888888888888889</v>
+      </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="1">
+        <f>AVERAGE(F2:F28)</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="G30" s="1">
+        <f>AVERAGE(G2:G28)</f>
+        <v>0.70370370370370372</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -2080,7 +2063,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
@@ -2088,9 +2071,12 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2102,21 +2088,29 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B28:D34 C2:D27 H2:H34">
+  <conditionalFormatting sqref="B29:D35 C2:D28 H2:H35">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2124,7 +2118,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:D34 C2:D27 H2:H34">
+  <conditionalFormatting sqref="B29:D35 C2:D28 H2:H35">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2132,22 +2126,22 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:J8 J9:J13">
+  <conditionalFormatting sqref="I8:J9 J10:J13">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D31 H2:H31">
+  <conditionalFormatting sqref="C2:D32 H2:H32">
     <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D35 H2:H35">
+  <conditionalFormatting sqref="C2:D36 H2:H36">
     <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"V"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B27">
+  <conditionalFormatting sqref="B2:B28">
     <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2155,7 +2149,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
+  <conditionalFormatting sqref="E2:E28">
     <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2169,7 +2163,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:G27">
+  <conditionalFormatting sqref="F2:G28">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -2177,7 +2171,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:G28">
+  <conditionalFormatting sqref="F29:G29">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2185,7 +2179,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:G28">
+  <conditionalFormatting sqref="F29:G29">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2193,7 +2187,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G30">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2201,7 +2195,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G30">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2209,7 +2203,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2217,7 +2211,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="F30">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
@@ -2225,7 +2219,7 @@
       <formula>"ko"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
@@ -2233,7 +2227,7 @@
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ko"</formula>
     </cfRule>
